--- a/Species_counts_createWIS_baseline.xlsx
+++ b/Species_counts_createWIS_baseline.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christina.Alba\.ssh\HLC_soil_and_veg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B939573-1EA1-4C62-B2B3-85F706A5A626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B90086-967D-44B6-931E-E68B80CFD83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="9" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -583,10 +583,18 @@
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="sample.bout" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsBlank="1" count="3">
+        <s v="1"/>
+        <s v="2"/>
+        <m/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Hit.Number" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsBlank="1" count="3">
+        <s v="1"/>
+        <s v="2"/>
+        <m/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Transect" numFmtId="0">
       <sharedItems containsBlank="1" count="46">
@@ -738,8 +746,8 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="881">
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="35"/>
     <s v="lower"/>
@@ -750,8 +758,8 @@
     <n v="9"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="35"/>
     <s v="middle"/>
@@ -762,8 +770,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="35"/>
     <s v="middle"/>
@@ -774,8 +782,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="35"/>
     <s v="upper"/>
@@ -786,8 +794,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="35"/>
     <s v="upper"/>
@@ -798,8 +806,8 @@
     <n v="8"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="28"/>
     <s v="lower"/>
@@ -810,8 +818,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="28"/>
     <s v="middle"/>
@@ -822,8 +830,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="28"/>
     <s v="middle"/>
@@ -834,8 +842,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="28"/>
     <s v="middle"/>
@@ -846,8 +854,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="28"/>
     <s v="upper"/>
@@ -858,8 +866,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="28"/>
     <s v="upper"/>
@@ -870,8 +878,8 @@
     <n v="8"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="41"/>
     <s v="lower"/>
@@ -882,8 +890,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="41"/>
     <s v="middle"/>
@@ -894,8 +902,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="41"/>
     <s v="middle"/>
@@ -906,8 +914,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="41"/>
     <s v="middle"/>
@@ -918,8 +926,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="41"/>
     <s v="upper"/>
@@ -930,8 +938,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="41"/>
     <s v="upper"/>
@@ -942,8 +950,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="41"/>
     <s v="upper"/>
@@ -954,8 +962,8 @@
     <n v="5"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="41"/>
     <s v="upper"/>
@@ -966,8 +974,8 @@
     <n v="5"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="26"/>
     <s v="lower"/>
@@ -978,8 +986,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="26"/>
     <s v="lower"/>
@@ -990,8 +998,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="26"/>
     <s v="middle"/>
@@ -1002,8 +1010,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="26"/>
     <s v="middle"/>
@@ -1014,8 +1022,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="26"/>
     <s v="middle"/>
@@ -1026,8 +1034,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="26"/>
     <s v="upper"/>
@@ -1038,8 +1046,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="26"/>
     <s v="upper"/>
@@ -1050,8 +1058,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="26"/>
     <s v="upper"/>
@@ -1062,8 +1070,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="4"/>
     <n v="28"/>
     <s v="upper"/>
@@ -1074,8 +1082,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="4"/>
     <n v="28"/>
     <s v="upper"/>
@@ -1086,8 +1094,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="5"/>
     <n v="29"/>
     <s v="middle"/>
@@ -1098,8 +1106,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="5"/>
     <n v="29"/>
     <s v="middle"/>
@@ -1110,8 +1118,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="5"/>
     <n v="29"/>
     <s v="upper"/>
@@ -1122,8 +1130,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="5"/>
     <n v="29"/>
     <s v="upper"/>
@@ -1134,8 +1142,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="5"/>
     <n v="29"/>
     <s v="upper"/>
@@ -1146,8 +1154,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="5"/>
     <n v="29"/>
     <s v="upper"/>
@@ -1158,8 +1166,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="5"/>
     <n v="29"/>
     <s v="upper"/>
@@ -1170,8 +1178,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="6"/>
     <n v="17"/>
     <s v="lower"/>
@@ -1182,8 +1190,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="6"/>
     <n v="17"/>
     <s v="lower"/>
@@ -1194,8 +1202,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="6"/>
     <n v="17"/>
     <s v="middle"/>
@@ -1206,8 +1214,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="6"/>
     <n v="17"/>
     <s v="middle"/>
@@ -1218,8 +1226,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="6"/>
     <n v="17"/>
     <s v="middle"/>
@@ -1230,8 +1238,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="6"/>
     <n v="17"/>
     <s v="upper"/>
@@ -1242,8 +1250,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="6"/>
     <n v="17"/>
     <s v="upper"/>
@@ -1254,8 +1262,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="6"/>
     <n v="17"/>
     <s v="upper"/>
@@ -1266,8 +1274,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="6"/>
     <n v="17"/>
     <s v="upper"/>
@@ -1278,8 +1286,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="7"/>
     <n v="27"/>
     <s v="upper"/>
@@ -1290,8 +1298,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="8"/>
     <n v="20"/>
     <s v="lower"/>
@@ -1302,8 +1310,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="8"/>
     <n v="20"/>
     <s v="middle"/>
@@ -1314,8 +1322,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="8"/>
     <n v="20"/>
     <s v="middle"/>
@@ -1326,8 +1334,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="8"/>
     <n v="20"/>
     <s v="upper"/>
@@ -1338,8 +1346,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="9"/>
     <n v="20"/>
     <s v="lower"/>
@@ -1350,8 +1358,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="9"/>
     <n v="20"/>
     <s v="middle"/>
@@ -1362,8 +1370,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="9"/>
     <n v="20"/>
     <s v="upper"/>
@@ -1374,8 +1382,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="9"/>
     <n v="20"/>
     <s v="upper"/>
@@ -1386,8 +1394,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="9"/>
     <n v="20"/>
     <s v="upper"/>
@@ -1398,8 +1406,8 @@
     <n v="5"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="10"/>
     <n v="25"/>
     <s v="lower"/>
@@ -1410,8 +1418,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="10"/>
     <n v="25"/>
     <s v="middle"/>
@@ -1422,8 +1430,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="10"/>
     <n v="25"/>
     <s v="middle"/>
@@ -1434,8 +1442,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="10"/>
     <n v="25"/>
     <s v="middle"/>
@@ -1446,8 +1454,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="10"/>
     <n v="25"/>
     <s v="upper"/>
@@ -1458,8 +1466,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="10"/>
     <n v="25"/>
     <s v="upper"/>
@@ -1470,8 +1478,8 @@
     <n v="5"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="10"/>
     <n v="25"/>
     <s v="upper"/>
@@ -1482,8 +1490,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="10"/>
     <n v="25"/>
     <s v="upper"/>
@@ -1494,8 +1502,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="11"/>
     <n v="36"/>
     <s v="lower"/>
@@ -1506,8 +1514,8 @@
     <n v="8"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="11"/>
     <n v="36"/>
     <s v="middle"/>
@@ -1518,8 +1526,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="11"/>
     <n v="36"/>
     <s v="middle"/>
@@ -1530,8 +1538,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="11"/>
     <n v="36"/>
     <s v="middle"/>
@@ -1542,8 +1550,8 @@
     <n v="5"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="11"/>
     <n v="36"/>
     <s v="middle"/>
@@ -1554,8 +1562,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="11"/>
     <n v="36"/>
     <s v="upper"/>
@@ -1566,8 +1574,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="11"/>
     <n v="36"/>
     <s v="upper"/>
@@ -1578,8 +1586,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="11"/>
     <n v="36"/>
     <s v="upper"/>
@@ -1590,8 +1598,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="11"/>
     <n v="36"/>
     <s v="upper"/>
@@ -1602,8 +1610,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="11"/>
     <n v="36"/>
     <s v="upper"/>
@@ -1614,8 +1622,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="12"/>
     <n v="41"/>
     <s v="lower"/>
@@ -1626,8 +1634,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="12"/>
     <n v="41"/>
     <s v="lower"/>
@@ -1638,8 +1646,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="12"/>
     <n v="41"/>
     <s v="lower"/>
@@ -1650,8 +1658,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="12"/>
     <n v="41"/>
     <s v="middle"/>
@@ -1662,8 +1670,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="12"/>
     <n v="41"/>
     <s v="middle"/>
@@ -1674,8 +1682,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="12"/>
     <n v="41"/>
     <s v="upper"/>
@@ -1686,8 +1694,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="12"/>
     <n v="41"/>
     <s v="upper"/>
@@ -1698,8 +1706,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="12"/>
     <n v="41"/>
     <s v="upper"/>
@@ -1710,8 +1718,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="12"/>
     <n v="41"/>
     <s v="upper"/>
@@ -1722,8 +1730,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="13"/>
     <n v="45"/>
     <s v="middle"/>
@@ -1734,8 +1742,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="13"/>
     <n v="45"/>
     <s v="middle"/>
@@ -1746,8 +1754,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="13"/>
     <n v="45"/>
     <s v="upper"/>
@@ -1758,8 +1766,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="13"/>
     <n v="45"/>
     <s v="upper"/>
@@ -1770,8 +1778,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="13"/>
     <n v="45"/>
     <s v="upper"/>
@@ -1782,8 +1790,8 @@
     <n v="9"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="14"/>
     <n v="18"/>
     <s v="lower"/>
@@ -1794,8 +1802,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="14"/>
     <n v="18"/>
     <s v="lower"/>
@@ -1806,8 +1814,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="14"/>
     <n v="18"/>
     <s v="middle"/>
@@ -1818,8 +1826,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="14"/>
     <n v="18"/>
     <s v="middle"/>
@@ -1830,8 +1838,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="14"/>
     <n v="18"/>
     <s v="upper"/>
@@ -1842,8 +1850,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="14"/>
     <n v="18"/>
     <s v="upper"/>
@@ -1854,8 +1862,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="15"/>
     <n v="36"/>
     <s v="lower"/>
@@ -1866,8 +1874,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="15"/>
     <n v="36"/>
     <s v="middle"/>
@@ -1878,8 +1886,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="15"/>
     <n v="36"/>
     <s v="middle"/>
@@ -1890,8 +1898,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="15"/>
     <n v="36"/>
     <s v="middle"/>
@@ -1902,8 +1910,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="15"/>
     <n v="36"/>
     <s v="middle"/>
@@ -1914,8 +1922,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="15"/>
     <n v="36"/>
     <s v="upper"/>
@@ -1926,8 +1934,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="15"/>
     <n v="36"/>
     <s v="upper"/>
@@ -1938,8 +1946,8 @@
     <n v="5"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="16"/>
     <n v="53"/>
     <s v="lower"/>
@@ -1950,8 +1958,8 @@
     <n v="7"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="16"/>
     <n v="53"/>
     <s v="middle"/>
@@ -1962,8 +1970,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="16"/>
     <n v="53"/>
     <s v="middle"/>
@@ -1974,8 +1982,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="16"/>
     <n v="53"/>
     <s v="middle"/>
@@ -1986,8 +1994,8 @@
     <n v="9"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="16"/>
     <n v="53"/>
     <s v="upper"/>
@@ -1998,8 +2006,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="16"/>
     <n v="53"/>
     <s v="upper"/>
@@ -2010,8 +2018,8 @@
     <n v="6"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="16"/>
     <n v="53"/>
     <s v="upper"/>
@@ -2022,8 +2030,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="16"/>
     <n v="53"/>
     <s v="upper"/>
@@ -2034,8 +2042,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="17"/>
     <n v="41"/>
     <s v="lower"/>
@@ -2046,8 +2054,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="17"/>
     <n v="41"/>
     <s v="lower"/>
@@ -2058,8 +2066,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="17"/>
     <n v="41"/>
     <s v="middle"/>
@@ -2070,8 +2078,8 @@
     <n v="11"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="17"/>
     <n v="41"/>
     <s v="upper"/>
@@ -2082,8 +2090,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="17"/>
     <n v="41"/>
     <s v="upper"/>
@@ -2094,8 +2102,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="17"/>
     <n v="41"/>
     <s v="upper"/>
@@ -2106,8 +2114,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="17"/>
     <n v="41"/>
     <s v="upper"/>
@@ -2118,8 +2126,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="17"/>
     <n v="41"/>
     <s v="upper"/>
@@ -2130,8 +2138,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="17"/>
     <n v="41"/>
     <s v="upper"/>
@@ -2142,8 +2150,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="18"/>
     <n v="27"/>
     <s v="lower"/>
@@ -2154,8 +2162,8 @@
     <n v="5"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="18"/>
     <n v="27"/>
     <s v="middle"/>
@@ -2166,8 +2174,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="18"/>
     <n v="27"/>
     <s v="middle"/>
@@ -2178,8 +2186,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="18"/>
     <n v="27"/>
     <s v="upper"/>
@@ -2190,8 +2198,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="18"/>
     <n v="27"/>
     <s v="upper"/>
@@ -2202,8 +2210,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="18"/>
     <n v="27"/>
     <s v="upper"/>
@@ -2214,8 +2222,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="18"/>
     <n v="27"/>
     <s v="upper"/>
@@ -2226,8 +2234,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="18"/>
     <n v="27"/>
     <s v="upper"/>
@@ -2238,8 +2246,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="19"/>
     <n v="24"/>
     <s v="lower"/>
@@ -2250,8 +2258,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="19"/>
     <n v="24"/>
     <s v="lower"/>
@@ -2262,8 +2270,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="19"/>
     <n v="24"/>
     <s v="middle"/>
@@ -2274,8 +2282,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="19"/>
     <n v="24"/>
     <s v="middle"/>
@@ -2286,8 +2294,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="19"/>
     <n v="24"/>
     <s v="middle"/>
@@ -2298,8 +2306,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="19"/>
     <n v="24"/>
     <s v="middle"/>
@@ -2310,8 +2318,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="19"/>
     <n v="24"/>
     <s v="upper"/>
@@ -2322,8 +2330,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="19"/>
     <n v="24"/>
     <s v="upper"/>
@@ -2334,8 +2342,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="19"/>
     <n v="24"/>
     <s v="upper"/>
@@ -2346,8 +2354,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="19"/>
     <n v="24"/>
     <s v="upper"/>
@@ -2358,8 +2366,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="19"/>
     <n v="24"/>
     <s v="upper"/>
@@ -2370,8 +2378,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="19"/>
     <n v="24"/>
     <s v="upper"/>
@@ -2382,8 +2390,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="19"/>
     <n v="24"/>
     <s v="upper"/>
@@ -2394,8 +2402,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="20"/>
     <n v="18"/>
     <s v="lower"/>
@@ -2406,8 +2414,8 @@
     <n v="5"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="20"/>
     <n v="18"/>
     <s v="middle"/>
@@ -2418,8 +2426,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="20"/>
     <n v="18"/>
     <s v="middle"/>
@@ -2430,8 +2438,8 @@
     <n v="5"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="20"/>
     <n v="18"/>
     <s v="upper"/>
@@ -2442,8 +2450,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="20"/>
     <n v="18"/>
     <s v="upper"/>
@@ -2454,8 +2462,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="20"/>
     <n v="18"/>
     <s v="upper"/>
@@ -2466,8 +2474,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="20"/>
     <n v="18"/>
     <s v="upper"/>
@@ -2478,8 +2486,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="21"/>
     <n v="25"/>
     <s v="lower"/>
@@ -2490,8 +2498,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="21"/>
     <n v="25"/>
     <s v="lower"/>
@@ -2502,8 +2510,8 @@
     <n v="5"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="21"/>
     <n v="25"/>
     <s v="middle"/>
@@ -2514,8 +2522,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="21"/>
     <n v="25"/>
     <s v="middle"/>
@@ -2526,8 +2534,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="21"/>
     <n v="25"/>
     <s v="middle"/>
@@ -2538,8 +2546,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="21"/>
     <n v="25"/>
     <s v="middle"/>
@@ -2550,8 +2558,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="21"/>
     <n v="25"/>
     <s v="upper"/>
@@ -2562,8 +2570,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="21"/>
     <n v="25"/>
     <s v="upper"/>
@@ -2574,8 +2582,8 @@
     <n v="8"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="22"/>
     <n v="24"/>
     <s v="lower"/>
@@ -2586,8 +2594,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="22"/>
     <n v="24"/>
     <s v="lower"/>
@@ -2598,8 +2606,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="22"/>
     <n v="24"/>
     <s v="middle"/>
@@ -2610,8 +2618,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="22"/>
     <n v="24"/>
     <s v="middle"/>
@@ -2622,8 +2630,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="22"/>
     <n v="24"/>
     <s v="upper"/>
@@ -2634,8 +2642,8 @@
     <n v="7"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="23"/>
     <n v="24"/>
     <s v="lower"/>
@@ -2646,8 +2654,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="23"/>
     <n v="24"/>
     <s v="middle"/>
@@ -2658,8 +2666,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="23"/>
     <n v="24"/>
     <s v="middle"/>
@@ -2670,8 +2678,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="23"/>
     <n v="24"/>
     <s v="middle"/>
@@ -2682,8 +2690,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="23"/>
     <n v="24"/>
     <s v="upper"/>
@@ -2694,8 +2702,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="23"/>
     <n v="24"/>
     <s v="upper"/>
@@ -2706,8 +2714,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="24"/>
     <n v="26"/>
     <s v="middle"/>
@@ -2718,8 +2726,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="24"/>
     <n v="26"/>
     <s v="upper"/>
@@ -2730,8 +2738,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="24"/>
     <n v="26"/>
     <s v="upper"/>
@@ -2742,8 +2750,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="24"/>
     <n v="26"/>
     <s v="upper"/>
@@ -2754,8 +2762,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="24"/>
     <n v="26"/>
     <s v="upper"/>
@@ -2766,8 +2774,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="25"/>
     <n v="28"/>
     <s v="lower"/>
@@ -2778,8 +2786,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="25"/>
     <n v="28"/>
     <s v="middle"/>
@@ -2790,8 +2798,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="25"/>
     <n v="28"/>
     <s v="middle"/>
@@ -2802,8 +2810,8 @@
     <n v="6"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="25"/>
     <n v="28"/>
     <s v="upper"/>
@@ -2814,8 +2822,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="25"/>
     <n v="28"/>
     <s v="upper"/>
@@ -2826,8 +2834,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="25"/>
     <n v="28"/>
     <s v="upper"/>
@@ -2838,8 +2846,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="26"/>
     <n v="24"/>
     <s v="lower"/>
@@ -2850,8 +2858,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="26"/>
     <n v="24"/>
     <s v="lower"/>
@@ -2862,8 +2870,8 @@
     <n v="5"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="26"/>
     <n v="24"/>
     <s v="middle"/>
@@ -2874,8 +2882,8 @@
     <n v="5"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="26"/>
     <n v="24"/>
     <s v="upper"/>
@@ -2886,8 +2894,8 @@
     <n v="8"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="27"/>
     <n v="17"/>
     <s v="lower"/>
@@ -2898,8 +2906,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="27"/>
     <n v="17"/>
     <s v="lower"/>
@@ -2910,8 +2918,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="27"/>
     <n v="17"/>
     <s v="lower"/>
@@ -2922,8 +2930,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="27"/>
     <n v="17"/>
     <s v="middle"/>
@@ -2934,8 +2942,8 @@
     <n v="5"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="27"/>
     <n v="17"/>
     <s v="upper"/>
@@ -2946,8 +2954,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="27"/>
     <n v="17"/>
     <s v="upper"/>
@@ -2958,8 +2966,8 @@
     <n v="5"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="28"/>
     <n v="17"/>
     <s v="lower"/>
@@ -2970,8 +2978,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="28"/>
     <n v="17"/>
     <s v="lower"/>
@@ -2982,8 +2990,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="28"/>
     <n v="17"/>
     <s v="lower"/>
@@ -2994,8 +3002,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="28"/>
     <n v="17"/>
     <s v="middle"/>
@@ -3006,8 +3014,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="28"/>
     <n v="17"/>
     <s v="upper"/>
@@ -3018,8 +3026,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="29"/>
     <n v="20"/>
     <s v="lower"/>
@@ -3030,8 +3038,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="29"/>
     <n v="20"/>
     <s v="lower"/>
@@ -3042,8 +3050,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="29"/>
     <n v="20"/>
     <s v="middle"/>
@@ -3054,8 +3062,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="29"/>
     <n v="20"/>
     <s v="middle"/>
@@ -3066,8 +3074,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="29"/>
     <n v="20"/>
     <s v="middle"/>
@@ -3078,8 +3086,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="29"/>
     <n v="20"/>
     <s v="middle"/>
@@ -3090,8 +3098,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="29"/>
     <n v="20"/>
     <s v="middle"/>
@@ -3102,8 +3110,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="29"/>
     <n v="20"/>
     <s v="upper"/>
@@ -3114,8 +3122,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="29"/>
     <n v="20"/>
     <s v="upper"/>
@@ -3126,8 +3134,8 @@
     <n v="5"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="30"/>
     <n v="34"/>
     <s v="upper"/>
@@ -3138,8 +3146,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="30"/>
     <n v="34"/>
     <s v="upper"/>
@@ -3150,8 +3158,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="30"/>
     <n v="34"/>
     <s v="upper"/>
@@ -3162,8 +3170,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="31"/>
     <n v="37"/>
     <s v="middle"/>
@@ -3174,8 +3182,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="31"/>
     <n v="37"/>
     <s v="upper"/>
@@ -3186,8 +3194,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="31"/>
     <n v="37"/>
     <s v="upper"/>
@@ -3198,8 +3206,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="31"/>
     <n v="37"/>
     <s v="upper"/>
@@ -3210,8 +3218,8 @@
     <n v="6"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="31"/>
     <n v="37"/>
     <s v="upper"/>
@@ -3222,8 +3230,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="32"/>
     <n v="37"/>
     <s v="middle"/>
@@ -3234,8 +3242,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="32"/>
     <n v="37"/>
     <s v="middle"/>
@@ -3246,8 +3254,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="32"/>
     <n v="37"/>
     <s v="middle"/>
@@ -3258,8 +3266,8 @@
     <n v="6"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="32"/>
     <n v="37"/>
     <s v="upper"/>
@@ -3270,8 +3278,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="32"/>
     <n v="37"/>
     <s v="upper"/>
@@ -3282,8 +3290,8 @@
     <n v="9"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="32"/>
     <n v="37"/>
     <s v="upper"/>
@@ -3294,8 +3302,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="33"/>
     <n v="37"/>
     <s v="middle"/>
@@ -3306,8 +3314,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="33"/>
     <n v="37"/>
     <s v="upper"/>
@@ -3318,8 +3326,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="33"/>
     <n v="37"/>
     <s v="upper"/>
@@ -3330,8 +3338,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="34"/>
     <n v="37"/>
     <s v="middle"/>
@@ -3342,8 +3350,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="34"/>
     <n v="37"/>
     <s v="upper"/>
@@ -3354,8 +3362,8 @@
     <n v="8"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="34"/>
     <n v="37"/>
     <s v="upper"/>
@@ -3366,8 +3374,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="35"/>
     <n v="18"/>
     <s v="lower"/>
@@ -3378,8 +3386,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="35"/>
     <n v="18"/>
     <s v="middle"/>
@@ -3390,8 +3398,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="35"/>
     <n v="18"/>
     <s v="middle"/>
@@ -3402,8 +3410,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="35"/>
     <n v="18"/>
     <s v="upper"/>
@@ -3414,8 +3422,8 @@
     <n v="6"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="36"/>
     <n v="18"/>
     <s v="lower"/>
@@ -3426,8 +3434,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="36"/>
     <n v="18"/>
     <s v="middle"/>
@@ -3438,8 +3446,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="36"/>
     <n v="18"/>
     <s v="middle"/>
@@ -3450,8 +3458,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="36"/>
     <n v="18"/>
     <s v="middle"/>
@@ -3462,8 +3470,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="36"/>
     <n v="18"/>
     <s v="middle"/>
@@ -3474,8 +3482,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="36"/>
     <n v="18"/>
     <s v="upper"/>
@@ -3486,8 +3494,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="36"/>
     <n v="18"/>
     <s v="upper"/>
@@ -3498,8 +3506,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="36"/>
     <n v="18"/>
     <s v="upper"/>
@@ -3510,8 +3518,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="37"/>
     <n v="17"/>
     <s v="lower"/>
@@ -3522,8 +3530,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="37"/>
     <n v="17"/>
     <s v="lower"/>
@@ -3534,8 +3542,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="37"/>
     <n v="17"/>
     <s v="middle"/>
@@ -3546,8 +3554,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="37"/>
     <n v="17"/>
     <s v="upper"/>
@@ -3558,8 +3566,8 @@
     <n v="6"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="38"/>
     <n v="17"/>
     <s v="lower"/>
@@ -3570,8 +3578,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="38"/>
     <n v="17"/>
     <s v="middle"/>
@@ -3582,8 +3590,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="38"/>
     <n v="17"/>
     <s v="upper"/>
@@ -3594,8 +3602,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="38"/>
     <n v="17"/>
     <s v="upper"/>
@@ -3606,8 +3614,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="38"/>
     <n v="17"/>
     <s v="upper"/>
@@ -3618,8 +3626,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="39"/>
     <n v="20"/>
     <s v="lower"/>
@@ -3630,8 +3638,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="39"/>
     <n v="20"/>
     <s v="lower"/>
@@ -3642,8 +3650,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="39"/>
     <n v="20"/>
     <s v="middle"/>
@@ -3654,8 +3662,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="39"/>
     <n v="20"/>
     <s v="upper"/>
@@ -3666,8 +3674,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="39"/>
     <n v="20"/>
     <s v="upper"/>
@@ -3678,8 +3686,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="39"/>
     <n v="20"/>
     <s v="upper"/>
@@ -3690,8 +3698,8 @@
     <n v="5"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="40"/>
     <n v="16"/>
     <s v="lower"/>
@@ -3702,8 +3710,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="40"/>
     <n v="16"/>
     <s v="lower"/>
@@ -3714,8 +3722,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="40"/>
     <n v="16"/>
     <s v="lower"/>
@@ -3726,8 +3734,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="40"/>
     <n v="16"/>
     <s v="middle"/>
@@ -3738,8 +3746,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="40"/>
     <n v="16"/>
     <s v="upper"/>
@@ -3750,8 +3758,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="40"/>
     <n v="16"/>
     <s v="upper"/>
@@ -3762,8 +3770,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="40"/>
     <n v="16"/>
     <s v="upper"/>
@@ -3774,8 +3782,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="41"/>
     <n v="20"/>
     <s v="lower"/>
@@ -3786,8 +3794,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="41"/>
     <n v="20"/>
     <s v="lower"/>
@@ -3798,8 +3806,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="41"/>
     <n v="20"/>
     <s v="middle"/>
@@ -3810,8 +3818,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="41"/>
     <n v="20"/>
     <s v="middle"/>
@@ -3822,8 +3830,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="41"/>
     <n v="20"/>
     <s v="upper"/>
@@ -3834,8 +3842,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="41"/>
     <n v="20"/>
     <s v="upper"/>
@@ -3846,8 +3854,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="41"/>
     <n v="20"/>
     <s v="upper"/>
@@ -3858,8 +3866,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="42"/>
     <n v="21"/>
     <s v="lower"/>
@@ -3870,8 +3878,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="42"/>
     <n v="21"/>
     <s v="lower"/>
@@ -3882,8 +3890,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="42"/>
     <n v="21"/>
     <s v="middle"/>
@@ -3894,8 +3902,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="42"/>
     <n v="21"/>
     <s v="upper"/>
@@ -3906,8 +3914,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="42"/>
     <n v="21"/>
     <s v="upper"/>
@@ -3918,8 +3926,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="43"/>
     <n v="20"/>
     <s v="lower"/>
@@ -3930,8 +3938,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="43"/>
     <n v="20"/>
     <s v="lower"/>
@@ -3942,8 +3950,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="43"/>
     <n v="20"/>
     <s v="middle"/>
@@ -3954,8 +3962,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="43"/>
     <n v="20"/>
     <s v="middle"/>
@@ -3966,8 +3974,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="43"/>
     <n v="20"/>
     <s v="upper"/>
@@ -3978,8 +3986,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="43"/>
     <n v="20"/>
     <s v="upper"/>
@@ -3990,8 +3998,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="43"/>
     <n v="20"/>
     <s v="upper"/>
@@ -4002,8 +4010,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="44"/>
     <n v="17"/>
     <s v="lower"/>
@@ -4014,8 +4022,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="44"/>
     <n v="17"/>
     <s v="middle"/>
@@ -4026,8 +4034,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="44"/>
     <n v="17"/>
     <s v="upper"/>
@@ -4038,8 +4046,8 @@
     <n v="5"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="35"/>
     <s v="upper"/>
@@ -4050,8 +4058,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="35"/>
     <s v="upper"/>
@@ -4062,8 +4070,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <n v="28"/>
     <s v="lower"/>
@@ -4074,8 +4082,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <n v="28"/>
     <s v="middle"/>
@@ -4086,8 +4094,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <n v="28"/>
     <s v="upper"/>
@@ -4098,8 +4106,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <n v="28"/>
     <s v="upper"/>
@@ -4110,8 +4118,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="3"/>
     <n v="26"/>
     <s v="middle"/>
@@ -4122,8 +4130,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="3"/>
     <n v="26"/>
     <s v="upper"/>
@@ -4134,8 +4142,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="3"/>
     <n v="26"/>
     <s v="upper"/>
@@ -4146,8 +4154,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="3"/>
     <n v="26"/>
     <s v="upper"/>
@@ -4158,8 +4166,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="4"/>
     <n v="28"/>
     <s v="upper"/>
@@ -4170,8 +4178,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="5"/>
     <n v="29"/>
     <s v="middle"/>
@@ -4182,8 +4190,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="5"/>
     <n v="29"/>
     <s v="upper"/>
@@ -4194,8 +4202,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="5"/>
     <n v="29"/>
     <s v="upper"/>
@@ -4206,8 +4214,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="5"/>
     <n v="29"/>
     <s v="upper"/>
@@ -4218,8 +4226,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="5"/>
     <n v="29"/>
     <s v="upper"/>
@@ -4230,8 +4238,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="5"/>
     <n v="29"/>
     <s v="upper"/>
@@ -4242,8 +4250,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="6"/>
     <n v="17"/>
     <s v="middle"/>
@@ -4254,8 +4262,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="6"/>
     <n v="17"/>
     <s v="upper"/>
@@ -4266,8 +4274,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="6"/>
     <n v="17"/>
     <s v="upper"/>
@@ -4278,8 +4286,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="6"/>
     <n v="17"/>
     <s v="upper"/>
@@ -4290,8 +4298,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="7"/>
     <n v="27"/>
     <s v="upper"/>
@@ -4302,8 +4310,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="9"/>
     <n v="20"/>
     <s v="upper"/>
@@ -4314,8 +4322,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="9"/>
     <n v="20"/>
     <s v="upper"/>
@@ -4326,8 +4334,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="10"/>
     <n v="25"/>
     <s v="middle"/>
@@ -4338,8 +4346,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="10"/>
     <n v="25"/>
     <s v="middle"/>
@@ -4350,8 +4358,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="10"/>
     <n v="25"/>
     <s v="upper"/>
@@ -4362,8 +4370,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="10"/>
     <n v="25"/>
     <s v="upper"/>
@@ -4374,8 +4382,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="10"/>
     <n v="25"/>
     <s v="upper"/>
@@ -4386,8 +4394,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="11"/>
     <n v="36"/>
     <s v="middle"/>
@@ -4398,8 +4406,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="11"/>
     <n v="36"/>
     <s v="upper"/>
@@ -4410,8 +4418,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="11"/>
     <n v="36"/>
     <s v="upper"/>
@@ -4422,8 +4430,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="12"/>
     <n v="41"/>
     <s v="middle"/>
@@ -4434,8 +4442,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="12"/>
     <n v="41"/>
     <s v="middle"/>
@@ -4446,8 +4454,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="13"/>
     <n v="45"/>
     <s v="upper"/>
@@ -4458,8 +4466,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="13"/>
     <n v="45"/>
     <s v="upper"/>
@@ -4470,8 +4478,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="14"/>
     <n v="18"/>
     <s v="upper"/>
@@ -4482,8 +4490,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="14"/>
     <n v="18"/>
     <s v="upper"/>
@@ -4494,8 +4502,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="15"/>
     <n v="36"/>
     <s v="middle"/>
@@ -4506,8 +4514,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="15"/>
     <n v="36"/>
     <s v="middle"/>
@@ -4518,8 +4526,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="15"/>
     <n v="36"/>
     <s v="middle"/>
@@ -4530,8 +4538,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="15"/>
     <n v="36"/>
     <s v="upper"/>
@@ -4542,8 +4550,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="15"/>
     <n v="36"/>
     <s v="upper"/>
@@ -4554,8 +4562,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="15"/>
     <n v="36"/>
     <s v="upper"/>
@@ -4566,8 +4574,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="16"/>
     <n v="53"/>
     <s v="upper"/>
@@ -4578,8 +4586,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="16"/>
     <n v="53"/>
     <s v="upper"/>
@@ -4590,8 +4598,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="16"/>
     <n v="53"/>
     <s v="upper"/>
@@ -4602,8 +4610,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="16"/>
     <n v="53"/>
     <s v="upper"/>
@@ -4614,8 +4622,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="16"/>
     <n v="53"/>
     <s v="upper"/>
@@ -4626,8 +4634,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="16"/>
     <n v="53"/>
     <s v="upper"/>
@@ -4638,8 +4646,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="17"/>
     <n v="41"/>
     <s v="middle"/>
@@ -4650,8 +4658,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="17"/>
     <n v="41"/>
     <s v="upper"/>
@@ -4662,8 +4670,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="17"/>
     <n v="41"/>
     <s v="upper"/>
@@ -4674,8 +4682,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="18"/>
     <n v="27"/>
     <s v="lower"/>
@@ -4686,8 +4694,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="18"/>
     <n v="27"/>
     <s v="middle"/>
@@ -4698,8 +4706,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="18"/>
     <n v="27"/>
     <s v="middle"/>
@@ -4710,8 +4718,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="18"/>
     <n v="27"/>
     <s v="middle"/>
@@ -4722,8 +4730,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="18"/>
     <n v="27"/>
     <s v="upper"/>
@@ -4734,8 +4742,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="18"/>
     <n v="27"/>
     <s v="upper"/>
@@ -4746,8 +4754,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="18"/>
     <n v="27"/>
     <s v="upper"/>
@@ -4758,8 +4766,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="18"/>
     <n v="27"/>
     <s v="upper"/>
@@ -4770,8 +4778,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="19"/>
     <n v="24"/>
     <s v="lower"/>
@@ -4782,8 +4790,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="19"/>
     <n v="24"/>
     <s v="middle"/>
@@ -4794,8 +4802,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="19"/>
     <n v="24"/>
     <s v="upper"/>
@@ -4806,8 +4814,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="19"/>
     <n v="24"/>
     <s v="upper"/>
@@ -4818,8 +4826,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="19"/>
     <n v="24"/>
     <s v="upper"/>
@@ -4830,8 +4838,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="19"/>
     <n v="24"/>
     <s v="upper"/>
@@ -4842,8 +4850,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="20"/>
     <n v="18"/>
     <s v="lower"/>
@@ -4854,8 +4862,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="20"/>
     <n v="18"/>
     <s v="middle"/>
@@ -4866,8 +4874,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="20"/>
     <n v="18"/>
     <s v="upper"/>
@@ -4878,8 +4886,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="20"/>
     <n v="18"/>
     <s v="upper"/>
@@ -4890,8 +4898,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="20"/>
     <n v="18"/>
     <s v="upper"/>
@@ -4902,8 +4910,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="21"/>
     <n v="25"/>
     <s v="middle"/>
@@ -4914,8 +4922,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="21"/>
     <n v="25"/>
     <s v="middle"/>
@@ -4926,8 +4934,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="21"/>
     <n v="25"/>
     <s v="middle"/>
@@ -4938,8 +4946,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="22"/>
     <n v="24"/>
     <s v="lower"/>
@@ -4950,8 +4958,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="22"/>
     <n v="24"/>
     <s v="lower"/>
@@ -4962,8 +4970,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="25"/>
     <n v="28"/>
     <s v="middle"/>
@@ -4974,8 +4982,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="25"/>
     <n v="28"/>
     <s v="middle"/>
@@ -4986,8 +4994,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="25"/>
     <n v="28"/>
     <s v="upper"/>
@@ -4998,8 +5006,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="25"/>
     <n v="28"/>
     <s v="upper"/>
@@ -5010,8 +5018,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="26"/>
     <n v="24"/>
     <s v="lower"/>
@@ -5022,8 +5030,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="27"/>
     <n v="17"/>
     <s v="lower"/>
@@ -5034,8 +5042,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="27"/>
     <n v="17"/>
     <s v="lower"/>
@@ -5046,8 +5054,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="27"/>
     <n v="17"/>
     <s v="middle"/>
@@ -5058,8 +5066,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="28"/>
     <n v="17"/>
     <s v="middle"/>
@@ -5070,8 +5078,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="28"/>
     <n v="17"/>
     <s v="middle"/>
@@ -5082,8 +5090,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="29"/>
     <n v="20"/>
     <s v="middle"/>
@@ -5094,8 +5102,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="29"/>
     <n v="20"/>
     <s v="middle"/>
@@ -5106,8 +5114,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="30"/>
     <n v="34"/>
     <s v="upper"/>
@@ -5118,8 +5126,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="30"/>
     <n v="34"/>
     <s v="upper"/>
@@ -5130,8 +5138,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="31"/>
     <n v="37"/>
     <s v="upper"/>
@@ -5142,8 +5150,8 @@
     <n v="5"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="31"/>
     <n v="37"/>
     <s v="upper"/>
@@ -5154,8 +5162,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="31"/>
     <n v="37"/>
     <s v="upper"/>
@@ -5166,8 +5174,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="31"/>
     <n v="37"/>
     <s v="upper"/>
@@ -5178,8 +5186,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="32"/>
     <n v="37"/>
     <s v="middle"/>
@@ -5190,8 +5198,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="32"/>
     <n v="37"/>
     <s v="middle"/>
@@ -5202,8 +5210,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="32"/>
     <n v="37"/>
     <s v="middle"/>
@@ -5214,8 +5222,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="32"/>
     <n v="37"/>
     <s v="upper"/>
@@ -5226,8 +5234,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="32"/>
     <n v="37"/>
     <s v="upper"/>
@@ -5238,8 +5246,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="32"/>
     <n v="37"/>
     <s v="upper"/>
@@ -5250,8 +5258,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="32"/>
     <n v="37"/>
     <s v="upper"/>
@@ -5262,8 +5270,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="34"/>
     <n v="37"/>
     <s v="upper"/>
@@ -5274,8 +5282,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="35"/>
     <n v="18"/>
     <s v="middle"/>
@@ -5286,8 +5294,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="36"/>
     <n v="18"/>
     <s v="middle"/>
@@ -5298,8 +5306,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="36"/>
     <n v="18"/>
     <s v="upper"/>
@@ -5310,8 +5318,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="36"/>
     <n v="18"/>
     <s v="upper"/>
@@ -5322,8 +5330,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="36"/>
     <n v="18"/>
     <s v="upper"/>
@@ -5334,8 +5342,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="37"/>
     <n v="17"/>
     <s v="lower"/>
@@ -5346,8 +5354,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="37"/>
     <n v="17"/>
     <s v="middle"/>
@@ -5358,8 +5366,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="37"/>
     <n v="17"/>
     <s v="upper"/>
@@ -5370,8 +5378,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="38"/>
     <n v="17"/>
     <s v="upper"/>
@@ -5382,8 +5390,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="38"/>
     <n v="17"/>
     <s v="upper"/>
@@ -5394,8 +5402,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="39"/>
     <n v="20"/>
     <s v="middle"/>
@@ -5406,8 +5414,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="39"/>
     <n v="20"/>
     <s v="upper"/>
@@ -5418,8 +5426,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="39"/>
     <n v="20"/>
     <s v="upper"/>
@@ -5430,8 +5438,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="39"/>
     <n v="20"/>
     <s v="upper"/>
@@ -5442,8 +5450,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="40"/>
     <n v="16"/>
     <s v="lower"/>
@@ -5454,8 +5462,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="40"/>
     <n v="16"/>
     <s v="lower"/>
@@ -5466,8 +5474,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="40"/>
     <n v="16"/>
     <s v="middle"/>
@@ -5478,8 +5486,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="43"/>
     <n v="20"/>
     <s v="middle"/>
@@ -5490,8 +5498,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="43"/>
     <n v="20"/>
     <s v="upper"/>
@@ -5502,8 +5510,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="43"/>
     <n v="20"/>
     <s v="upper"/>
@@ -5514,8 +5522,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="1"/>
-    <s v="2"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="44"/>
     <n v="17"/>
     <s v="upper"/>
@@ -5526,8 +5534,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="35"/>
     <s v="lower"/>
@@ -5538,8 +5546,8 @@
     <n v="8"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="35"/>
     <s v="middle"/>
@@ -5550,8 +5558,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="35"/>
     <s v="middle"/>
@@ -5562,8 +5570,8 @@
     <n v="6"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="35"/>
     <s v="upper"/>
@@ -5574,8 +5582,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="35"/>
     <s v="upper"/>
@@ -5586,8 +5594,8 @@
     <n v="6"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="29"/>
     <s v="lower"/>
@@ -5598,8 +5606,8 @@
     <n v="5"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="29"/>
     <s v="middle"/>
@@ -5610,8 +5618,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="29"/>
     <s v="middle"/>
@@ -5622,8 +5630,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="29"/>
     <s v="middle"/>
@@ -5634,8 +5642,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <n v="29"/>
     <s v="upper"/>
@@ -5646,8 +5654,8 @@
     <n v="8"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="37"/>
     <s v="middle"/>
@@ -5658,8 +5666,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="37"/>
     <s v="middle"/>
@@ -5670,8 +5678,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="37"/>
     <s v="middle"/>
@@ -5682,8 +5690,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="37"/>
     <s v="upper"/>
@@ -5694,8 +5702,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="37"/>
     <s v="upper"/>
@@ -5706,8 +5714,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="37"/>
     <s v="upper"/>
@@ -5718,8 +5726,8 @@
     <n v="6"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="37"/>
     <s v="upper"/>
@@ -5730,8 +5738,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="39"/>
     <s v="lower"/>
@@ -5742,8 +5750,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="39"/>
     <s v="middle"/>
@@ -5754,8 +5762,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="39"/>
     <s v="middle"/>
@@ -5766,8 +5774,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="39"/>
     <s v="middle"/>
@@ -5778,8 +5786,8 @@
     <n v="7"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="39"/>
     <s v="upper"/>
@@ -5790,8 +5798,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="39"/>
     <s v="upper"/>
@@ -5802,8 +5810,8 @@
     <n v="5"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="39"/>
     <s v="upper"/>
@@ -5814,8 +5822,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="39"/>
     <s v="upper"/>
@@ -5826,8 +5834,8 @@
     <n v="6"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="4"/>
     <n v="33"/>
     <s v="upper"/>
@@ -5838,8 +5846,8 @@
     <n v="6"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="4"/>
     <n v="33"/>
     <s v="upper"/>
@@ -5850,8 +5858,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="4"/>
     <n v="33"/>
     <s v="upper"/>
@@ -5862,8 +5870,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="5"/>
     <n v="31"/>
     <s v="middle"/>
@@ -5874,8 +5882,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="5"/>
     <n v="31"/>
     <s v="middle"/>
@@ -5886,8 +5894,8 @@
     <n v="5"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="5"/>
     <n v="31"/>
     <s v="middle"/>
@@ -5898,8 +5906,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="5"/>
     <n v="31"/>
     <s v="upper"/>
@@ -5910,8 +5918,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="5"/>
     <n v="31"/>
     <s v="upper"/>
@@ -5922,8 +5930,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="5"/>
     <n v="31"/>
     <s v="upper"/>
@@ -5934,8 +5942,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="5"/>
     <n v="31"/>
     <s v="upper"/>
@@ -5946,8 +5954,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="6"/>
     <n v="28"/>
     <s v="middle"/>
@@ -5958,8 +5966,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="6"/>
     <n v="28"/>
     <s v="middle"/>
@@ -5970,8 +5978,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="6"/>
     <n v="28"/>
     <s v="middle"/>
@@ -5982,8 +5990,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="6"/>
     <n v="28"/>
     <s v="middle"/>
@@ -5994,8 +6002,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="6"/>
     <n v="28"/>
     <s v="upper"/>
@@ -6006,8 +6014,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="6"/>
     <n v="28"/>
     <s v="upper"/>
@@ -6018,8 +6026,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="6"/>
     <n v="28"/>
     <s v="upper"/>
@@ -6030,8 +6038,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="6"/>
     <n v="28"/>
     <s v="upper"/>
@@ -6042,8 +6050,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="6"/>
     <n v="28"/>
     <s v="upper"/>
@@ -6054,8 +6062,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="6"/>
     <n v="28"/>
     <s v="upper"/>
@@ -6066,8 +6074,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="7"/>
     <n v="23"/>
     <s v="lower"/>
@@ -6078,8 +6086,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="7"/>
     <n v="23"/>
     <s v="upper"/>
@@ -6090,8 +6098,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="7"/>
     <n v="23"/>
     <s v="upper"/>
@@ -6102,8 +6110,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="7"/>
     <n v="23"/>
     <s v="upper"/>
@@ -6114,8 +6122,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="8"/>
     <n v="25"/>
     <s v="middle"/>
@@ -6126,8 +6134,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="8"/>
     <n v="25"/>
     <s v="upper"/>
@@ -6138,8 +6146,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="8"/>
     <n v="25"/>
     <s v="upper"/>
@@ -6150,8 +6158,8 @@
     <n v="7"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="9"/>
     <n v="31"/>
     <s v="middle"/>
@@ -6162,8 +6170,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="9"/>
     <n v="31"/>
     <s v="middle"/>
@@ -6174,8 +6182,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="9"/>
     <n v="31"/>
     <s v="upper"/>
@@ -6186,8 +6194,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="9"/>
     <n v="31"/>
     <s v="upper"/>
@@ -6198,8 +6206,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="9"/>
     <n v="31"/>
     <s v="upper"/>
@@ -6210,8 +6218,8 @@
     <n v="5"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="10"/>
     <n v="26"/>
     <s v="lower"/>
@@ -6222,8 +6230,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="10"/>
     <n v="26"/>
     <s v="lower"/>
@@ -6234,8 +6242,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="10"/>
     <n v="26"/>
     <s v="lower"/>
@@ -6246,8 +6254,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="10"/>
     <n v="26"/>
     <s v="middle"/>
@@ -6258,8 +6266,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="10"/>
     <n v="26"/>
     <s v="middle"/>
@@ -6270,8 +6278,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="10"/>
     <n v="26"/>
     <s v="middle"/>
@@ -6282,8 +6290,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="10"/>
     <n v="26"/>
     <s v="upper"/>
@@ -6294,8 +6302,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="10"/>
     <n v="26"/>
     <s v="upper"/>
@@ -6306,8 +6314,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="10"/>
     <n v="26"/>
     <s v="upper"/>
@@ -6318,8 +6326,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="11"/>
     <n v="45"/>
     <s v="lower"/>
@@ -6330,8 +6338,8 @@
     <n v="5"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="11"/>
     <n v="45"/>
     <s v="middle"/>
@@ -6342,8 +6350,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="11"/>
     <n v="45"/>
     <s v="middle"/>
@@ -6354,8 +6362,8 @@
     <n v="11"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="11"/>
     <n v="45"/>
     <s v="middle"/>
@@ -6366,8 +6374,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="11"/>
     <n v="45"/>
     <s v="upper"/>
@@ -6378,8 +6386,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="11"/>
     <n v="45"/>
     <s v="upper"/>
@@ -6390,8 +6398,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="11"/>
     <n v="45"/>
     <s v="upper"/>
@@ -6402,8 +6410,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="11"/>
     <n v="45"/>
     <s v="upper"/>
@@ -6414,8 +6422,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="11"/>
     <n v="45"/>
     <s v="upper"/>
@@ -6426,8 +6434,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="11"/>
     <n v="45"/>
     <s v="upper"/>
@@ -6438,8 +6446,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="12"/>
     <n v="51"/>
     <s v="lower"/>
@@ -6450,8 +6458,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="12"/>
     <n v="51"/>
     <s v="lower"/>
@@ -6462,8 +6470,8 @@
     <n v="6"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="12"/>
     <n v="51"/>
     <s v="middle"/>
@@ -6474,8 +6482,8 @@
     <n v="6"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="12"/>
     <n v="51"/>
     <s v="middle"/>
@@ -6486,8 +6494,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="12"/>
     <n v="51"/>
     <s v="middle"/>
@@ -6498,8 +6506,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="12"/>
     <n v="51"/>
     <s v="middle"/>
@@ -6510,8 +6518,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="12"/>
     <n v="51"/>
     <s v="middle"/>
@@ -6522,8 +6530,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="12"/>
     <n v="51"/>
     <s v="middle"/>
@@ -6534,8 +6542,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="12"/>
     <n v="51"/>
     <s v="upper"/>
@@ -6546,8 +6554,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="12"/>
     <n v="51"/>
     <s v="upper"/>
@@ -6558,8 +6566,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="12"/>
     <n v="51"/>
     <s v="upper"/>
@@ -6570,8 +6578,8 @@
     <n v="6"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="12"/>
     <n v="51"/>
     <s v="upper"/>
@@ -6582,8 +6590,8 @@
     <n v="8"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="13"/>
     <n v="35"/>
     <s v="middle"/>
@@ -6594,8 +6602,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="13"/>
     <n v="35"/>
     <s v="middle"/>
@@ -6606,8 +6614,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="13"/>
     <n v="35"/>
     <s v="middle"/>
@@ -6618,8 +6626,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="13"/>
     <n v="35"/>
     <s v="middle"/>
@@ -6630,8 +6638,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="13"/>
     <n v="35"/>
     <s v="upper"/>
@@ -6642,8 +6650,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="13"/>
     <n v="35"/>
     <s v="upper"/>
@@ -6654,8 +6662,8 @@
     <n v="8"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="13"/>
     <n v="35"/>
     <s v="upper"/>
@@ -6666,8 +6674,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="14"/>
     <n v="33"/>
     <s v="middle"/>
@@ -6678,8 +6686,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="14"/>
     <n v="33"/>
     <s v="middle"/>
@@ -6690,8 +6698,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="14"/>
     <n v="33"/>
     <s v="middle"/>
@@ -6702,8 +6710,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="14"/>
     <n v="33"/>
     <s v="middle"/>
@@ -6714,8 +6722,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="14"/>
     <n v="33"/>
     <s v="upper"/>
@@ -6726,8 +6734,8 @@
     <n v="5"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="14"/>
     <n v="33"/>
     <s v="upper"/>
@@ -6738,8 +6746,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="14"/>
     <n v="33"/>
     <s v="upper"/>
@@ -6750,8 +6758,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="14"/>
     <n v="33"/>
     <s v="upper"/>
@@ -6762,8 +6770,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="14"/>
     <n v="33"/>
     <s v="upper"/>
@@ -6774,8 +6782,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="15"/>
     <n v="41"/>
     <s v="lower"/>
@@ -6786,8 +6794,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="15"/>
     <n v="41"/>
     <s v="lower"/>
@@ -6798,8 +6806,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="15"/>
     <n v="41"/>
     <s v="lower"/>
@@ -6810,8 +6818,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="15"/>
     <n v="41"/>
     <s v="middle"/>
@@ -6822,8 +6830,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="15"/>
     <n v="41"/>
     <s v="middle"/>
@@ -6834,8 +6842,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="15"/>
     <n v="41"/>
     <s v="middle"/>
@@ -6846,8 +6854,8 @@
     <n v="6"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="15"/>
     <n v="41"/>
     <s v="middle"/>
@@ -6858,8 +6866,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="15"/>
     <n v="41"/>
     <s v="upper"/>
@@ -6870,8 +6878,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="15"/>
     <n v="41"/>
     <s v="upper"/>
@@ -6882,8 +6890,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="15"/>
     <n v="41"/>
     <s v="upper"/>
@@ -6894,8 +6902,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="15"/>
     <n v="41"/>
     <s v="upper"/>
@@ -6906,8 +6914,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="15"/>
     <n v="41"/>
     <s v="upper"/>
@@ -6918,8 +6926,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="15"/>
     <n v="41"/>
     <s v="upper"/>
@@ -6930,8 +6938,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="16"/>
     <n v="49"/>
     <s v="lower"/>
@@ -6942,8 +6950,8 @@
     <n v="12"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="16"/>
     <n v="49"/>
     <s v="middle"/>
@@ -6954,8 +6962,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="16"/>
     <n v="49"/>
     <s v="middle"/>
@@ -6966,8 +6974,8 @@
     <n v="10"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="16"/>
     <n v="49"/>
     <s v="upper"/>
@@ -6978,8 +6986,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="16"/>
     <n v="49"/>
     <s v="upper"/>
@@ -6990,8 +6998,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="16"/>
     <n v="49"/>
     <s v="upper"/>
@@ -7002,8 +7010,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="16"/>
     <n v="49"/>
     <s v="upper"/>
@@ -7014,8 +7022,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="16"/>
     <n v="49"/>
     <s v="upper"/>
@@ -7026,8 +7034,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="17"/>
     <n v="37"/>
     <s v="lower"/>
@@ -7038,8 +7046,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="17"/>
     <n v="37"/>
     <s v="middle"/>
@@ -7050,8 +7058,8 @@
     <n v="10"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="17"/>
     <n v="37"/>
     <s v="middle"/>
@@ -7062,8 +7070,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="17"/>
     <n v="37"/>
     <s v="upper"/>
@@ -7074,8 +7082,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="17"/>
     <n v="37"/>
     <s v="upper"/>
@@ -7086,8 +7094,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="17"/>
     <n v="37"/>
     <s v="upper"/>
@@ -7098,8 +7106,8 @@
     <n v="6"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="17"/>
     <n v="37"/>
     <s v="upper"/>
@@ -7110,8 +7118,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="18"/>
     <n v="22"/>
     <s v="lower"/>
@@ -7122,8 +7130,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="18"/>
     <n v="22"/>
     <s v="middle"/>
@@ -7134,8 +7142,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="18"/>
     <n v="22"/>
     <s v="middle"/>
@@ -7146,8 +7154,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="18"/>
     <n v="22"/>
     <s v="upper"/>
@@ -7158,8 +7166,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="18"/>
     <n v="22"/>
     <s v="upper"/>
@@ -7170,8 +7178,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="18"/>
     <n v="22"/>
     <s v="upper"/>
@@ -7182,8 +7190,8 @@
     <n v="5"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="19"/>
     <n v="26"/>
     <s v="lower"/>
@@ -7194,8 +7202,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="19"/>
     <n v="26"/>
     <s v="lower"/>
@@ -7206,8 +7214,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="19"/>
     <n v="26"/>
     <s v="lower"/>
@@ -7218,8 +7226,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="19"/>
     <n v="26"/>
     <s v="middle"/>
@@ -7230,8 +7238,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="19"/>
     <n v="26"/>
     <s v="middle"/>
@@ -7242,8 +7250,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="19"/>
     <n v="26"/>
     <s v="middle"/>
@@ -7254,8 +7262,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="19"/>
     <n v="26"/>
     <s v="middle"/>
@@ -7266,8 +7274,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="19"/>
     <n v="26"/>
     <s v="upper"/>
@@ -7278,8 +7286,8 @@
     <n v="7"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="19"/>
     <n v="26"/>
     <s v="upper"/>
@@ -7290,8 +7298,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="19"/>
     <n v="26"/>
     <s v="upper"/>
@@ -7302,8 +7310,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="20"/>
     <n v="20"/>
     <s v="lower"/>
@@ -7314,8 +7322,8 @@
     <n v="6"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="20"/>
     <n v="20"/>
     <s v="middle"/>
@@ -7326,8 +7334,8 @@
     <n v="6"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="20"/>
     <n v="20"/>
     <s v="upper"/>
@@ -7338,8 +7346,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="20"/>
     <n v="20"/>
     <s v="upper"/>
@@ -7350,8 +7358,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="20"/>
     <n v="20"/>
     <s v="upper"/>
@@ -7362,8 +7370,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="20"/>
     <n v="20"/>
     <s v="upper"/>
@@ -7374,8 +7382,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="21"/>
     <n v="31"/>
     <s v="lower"/>
@@ -7386,8 +7394,8 @@
     <n v="6"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="21"/>
     <n v="31"/>
     <s v="middle"/>
@@ -7398,8 +7406,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="21"/>
     <n v="31"/>
     <s v="middle"/>
@@ -7410,8 +7418,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="21"/>
     <n v="31"/>
     <s v="middle"/>
@@ -7422,8 +7430,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="21"/>
     <n v="31"/>
     <s v="middle"/>
@@ -7434,8 +7442,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="21"/>
     <n v="31"/>
     <s v="middle"/>
@@ -7446,8 +7454,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="21"/>
     <n v="31"/>
     <s v="upper"/>
@@ -7458,8 +7466,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="21"/>
     <n v="31"/>
     <s v="upper"/>
@@ -7470,8 +7478,8 @@
     <n v="7"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="22"/>
     <n v="28"/>
     <s v="lower"/>
@@ -7482,8 +7490,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="22"/>
     <n v="28"/>
     <s v="lower"/>
@@ -7494,8 +7502,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="22"/>
     <n v="28"/>
     <s v="lower"/>
@@ -7506,8 +7514,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="22"/>
     <n v="28"/>
     <s v="lower"/>
@@ -7518,8 +7526,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="22"/>
     <n v="28"/>
     <s v="middle"/>
@@ -7530,8 +7538,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="22"/>
     <n v="28"/>
     <s v="middle"/>
@@ -7542,8 +7550,8 @@
     <n v="5"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="22"/>
     <n v="28"/>
     <s v="upper"/>
@@ -7554,8 +7562,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="22"/>
     <n v="28"/>
     <s v="upper"/>
@@ -7566,8 +7574,8 @@
     <n v="8"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="23"/>
     <n v="28"/>
     <s v="lower"/>
@@ -7578,8 +7586,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="23"/>
     <n v="28"/>
     <s v="lower"/>
@@ -7590,8 +7598,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="23"/>
     <n v="28"/>
     <s v="lower"/>
@@ -7602,8 +7610,8 @@
     <n v="5"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="23"/>
     <n v="28"/>
     <s v="lower"/>
@@ -7614,8 +7622,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="23"/>
     <n v="28"/>
     <s v="middle"/>
@@ -7626,8 +7634,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="23"/>
     <n v="28"/>
     <s v="middle"/>
@@ -7638,8 +7646,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="23"/>
     <n v="28"/>
     <s v="middle"/>
@@ -7650,8 +7658,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="23"/>
     <n v="28"/>
     <s v="upper"/>
@@ -7662,8 +7670,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="23"/>
     <n v="28"/>
     <s v="upper"/>
@@ -7674,8 +7682,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="24"/>
     <n v="29"/>
     <s v="middle"/>
@@ -7686,8 +7694,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="24"/>
     <n v="29"/>
     <s v="upper"/>
@@ -7698,8 +7706,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="24"/>
     <n v="29"/>
     <s v="upper"/>
@@ -7710,8 +7718,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="25"/>
     <n v="35"/>
     <s v="lower"/>
@@ -7722,8 +7730,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="25"/>
     <n v="35"/>
     <s v="middle"/>
@@ -7734,8 +7742,8 @@
     <n v="5"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="25"/>
     <n v="35"/>
     <s v="upper"/>
@@ -7746,8 +7754,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="25"/>
     <n v="35"/>
     <s v="upper"/>
@@ -7758,8 +7766,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="25"/>
     <n v="35"/>
     <s v="upper"/>
@@ -7770,8 +7778,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="25"/>
     <n v="35"/>
     <s v="upper"/>
@@ -7782,8 +7790,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="25"/>
     <n v="35"/>
     <s v="upper"/>
@@ -7794,8 +7802,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="26"/>
     <n v="37"/>
     <s v="middle"/>
@@ -7806,8 +7814,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="26"/>
     <n v="37"/>
     <s v="middle"/>
@@ -7818,8 +7826,8 @@
     <n v="6"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="26"/>
     <n v="37"/>
     <s v="upper"/>
@@ -7830,8 +7838,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="26"/>
     <n v="37"/>
     <s v="upper"/>
@@ -7842,8 +7850,8 @@
     <n v="10"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="26"/>
     <n v="37"/>
     <s v="upper"/>
@@ -7854,8 +7862,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="27"/>
     <n v="37"/>
     <s v="middle"/>
@@ -7866,8 +7874,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="27"/>
     <n v="37"/>
     <s v="middle"/>
@@ -7878,8 +7886,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="27"/>
     <n v="37"/>
     <s v="upper"/>
@@ -7890,8 +7898,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="27"/>
     <n v="37"/>
     <s v="upper"/>
@@ -7902,8 +7910,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="27"/>
     <n v="37"/>
     <s v="upper"/>
@@ -7914,8 +7922,8 @@
     <n v="9"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="28"/>
     <n v="28"/>
     <s v="middle"/>
@@ -7926,8 +7934,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="28"/>
     <n v="28"/>
     <s v="middle"/>
@@ -7938,8 +7946,8 @@
     <n v="8"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="28"/>
     <n v="28"/>
     <s v="upper"/>
@@ -7950,8 +7958,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="28"/>
     <n v="28"/>
     <s v="upper"/>
@@ -7962,8 +7970,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="28"/>
     <n v="28"/>
     <s v="upper"/>
@@ -7974,8 +7982,8 @@
     <n v="8"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="29"/>
     <n v="29"/>
     <s v="lower"/>
@@ -7986,8 +7994,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="29"/>
     <n v="29"/>
     <s v="middle"/>
@@ -7998,8 +8006,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="29"/>
     <n v="29"/>
     <s v="middle"/>
@@ -8010,8 +8018,8 @@
     <n v="5"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="29"/>
     <n v="29"/>
     <s v="upper"/>
@@ -8022,8 +8030,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="29"/>
     <n v="29"/>
     <s v="upper"/>
@@ -8034,8 +8042,8 @@
     <n v="5"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="30"/>
     <n v="35"/>
     <s v="upper"/>
@@ -8046,8 +8054,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="30"/>
     <n v="35"/>
     <s v="upper"/>
@@ -8058,8 +8066,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="30"/>
     <n v="35"/>
     <s v="upper"/>
@@ -8070,8 +8078,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="31"/>
     <n v="41"/>
     <s v="middle"/>
@@ -8082,8 +8090,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="31"/>
     <n v="41"/>
     <s v="upper"/>
@@ -8094,8 +8102,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="31"/>
     <n v="41"/>
     <s v="upper"/>
@@ -8106,8 +8114,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="31"/>
     <n v="41"/>
     <s v="upper"/>
@@ -8118,8 +8126,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="31"/>
     <n v="41"/>
     <s v="upper"/>
@@ -8130,8 +8138,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="31"/>
     <n v="41"/>
     <s v="upper"/>
@@ -8142,8 +8150,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="32"/>
     <n v="35"/>
     <s v="lower"/>
@@ -8154,8 +8162,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="32"/>
     <n v="35"/>
     <s v="middle"/>
@@ -8166,8 +8174,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="32"/>
     <n v="35"/>
     <s v="middle"/>
@@ -8178,8 +8186,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="32"/>
     <n v="35"/>
     <s v="middle"/>
@@ -8190,8 +8198,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="32"/>
     <n v="35"/>
     <s v="middle"/>
@@ -8202,8 +8210,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="32"/>
     <n v="35"/>
     <s v="upper"/>
@@ -8214,8 +8222,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="32"/>
     <n v="35"/>
     <s v="upper"/>
@@ -8226,8 +8234,8 @@
     <n v="8"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="32"/>
     <n v="35"/>
     <s v="upper"/>
@@ -8238,8 +8246,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="33"/>
     <n v="37"/>
     <s v="middle"/>
@@ -8250,8 +8258,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="33"/>
     <n v="37"/>
     <s v="upper"/>
@@ -8262,8 +8270,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="33"/>
     <n v="37"/>
     <s v="upper"/>
@@ -8274,8 +8282,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="34"/>
     <n v="37"/>
     <s v="upper"/>
@@ -8286,8 +8294,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="34"/>
     <n v="37"/>
     <s v="upper"/>
@@ -8298,8 +8306,8 @@
     <n v="8"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="35"/>
     <n v="29"/>
     <s v="lower"/>
@@ -8310,8 +8318,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="35"/>
     <n v="29"/>
     <s v="middle"/>
@@ -8322,8 +8330,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="35"/>
     <n v="29"/>
     <s v="upper"/>
@@ -8334,8 +8342,8 @@
     <n v="10"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="36"/>
     <n v="29"/>
     <s v="lower"/>
@@ -8346,8 +8354,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="36"/>
     <n v="29"/>
     <s v="middle"/>
@@ -8358,8 +8366,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="36"/>
     <n v="29"/>
     <s v="middle"/>
@@ -8370,8 +8378,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="36"/>
     <n v="29"/>
     <s v="middle"/>
@@ -8382,8 +8390,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="36"/>
     <n v="29"/>
     <s v="middle"/>
@@ -8394,8 +8402,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="36"/>
     <n v="29"/>
     <s v="upper"/>
@@ -8406,8 +8414,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="36"/>
     <n v="29"/>
     <s v="upper"/>
@@ -8418,8 +8426,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="36"/>
     <n v="29"/>
     <s v="upper"/>
@@ -8430,8 +8438,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="36"/>
     <n v="29"/>
     <s v="upper"/>
@@ -8442,8 +8450,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="37"/>
     <n v="29"/>
     <s v="lower"/>
@@ -8454,8 +8462,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="37"/>
     <n v="29"/>
     <s v="middle"/>
@@ -8466,8 +8474,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="37"/>
     <n v="29"/>
     <s v="middle"/>
@@ -8478,8 +8486,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="37"/>
     <n v="29"/>
     <s v="upper"/>
@@ -8490,8 +8498,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="37"/>
     <n v="29"/>
     <s v="upper"/>
@@ -8502,8 +8510,8 @@
     <n v="8"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="37"/>
     <n v="29"/>
     <s v="upper"/>
@@ -8514,8 +8522,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="38"/>
     <n v="21"/>
     <s v="lower"/>
@@ -8526,8 +8534,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="38"/>
     <n v="21"/>
     <s v="lower"/>
@@ -8538,8 +8546,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="38"/>
     <n v="21"/>
     <s v="middle"/>
@@ -8550,8 +8558,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="38"/>
     <n v="21"/>
     <s v="upper"/>
@@ -8562,8 +8570,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="38"/>
     <n v="21"/>
     <s v="upper"/>
@@ -8574,8 +8582,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="38"/>
     <n v="21"/>
     <s v="upper"/>
@@ -8586,8 +8594,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="38"/>
     <n v="21"/>
     <s v="upper"/>
@@ -8598,8 +8606,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="39"/>
     <n v="30"/>
     <s v="lower"/>
@@ -8610,8 +8618,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="39"/>
     <n v="30"/>
     <s v="lower"/>
@@ -8622,8 +8630,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="39"/>
     <n v="30"/>
     <s v="lower"/>
@@ -8634,8 +8642,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="39"/>
     <n v="30"/>
     <s v="middle"/>
@@ -8646,8 +8654,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="39"/>
     <n v="30"/>
     <s v="middle"/>
@@ -8658,8 +8666,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="39"/>
     <n v="30"/>
     <s v="middle"/>
@@ -8670,8 +8678,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="39"/>
     <n v="30"/>
     <s v="middle"/>
@@ -8682,8 +8690,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="39"/>
     <n v="30"/>
     <s v="upper"/>
@@ -8694,8 +8702,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="39"/>
     <n v="30"/>
     <s v="upper"/>
@@ -8706,8 +8714,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="39"/>
     <n v="30"/>
     <s v="upper"/>
@@ -8718,8 +8726,8 @@
     <n v="7"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="39"/>
     <n v="30"/>
     <s v="upper"/>
@@ -8730,8 +8738,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="40"/>
     <n v="29"/>
     <s v="middle"/>
@@ -8742,8 +8750,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="40"/>
     <n v="29"/>
     <s v="middle"/>
@@ -8754,8 +8762,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="40"/>
     <n v="29"/>
     <s v="middle"/>
@@ -8766,8 +8774,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="40"/>
     <n v="29"/>
     <s v="upper"/>
@@ -8778,8 +8786,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="40"/>
     <n v="29"/>
     <s v="upper"/>
@@ -8790,8 +8798,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="40"/>
     <n v="29"/>
     <s v="upper"/>
@@ -8802,8 +8810,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="41"/>
     <n v="29"/>
     <s v="middle"/>
@@ -8814,8 +8822,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="41"/>
     <n v="29"/>
     <s v="middle"/>
@@ -8826,8 +8834,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="41"/>
     <n v="29"/>
     <s v="upper"/>
@@ -8838,8 +8846,8 @@
     <n v="10"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="42"/>
     <n v="33"/>
     <s v="lower"/>
@@ -8850,8 +8858,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="42"/>
     <n v="33"/>
     <s v="lower"/>
@@ -8862,8 +8870,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="42"/>
     <n v="33"/>
     <s v="middle"/>
@@ -8874,8 +8882,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="42"/>
     <n v="33"/>
     <s v="middle"/>
@@ -8886,8 +8894,8 @@
     <n v="5"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="42"/>
     <n v="33"/>
     <s v="upper"/>
@@ -8898,8 +8906,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="42"/>
     <n v="33"/>
     <s v="upper"/>
@@ -8910,8 +8918,8 @@
     <n v="7"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="43"/>
     <n v="29"/>
     <s v="lower"/>
@@ -8922,8 +8930,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="43"/>
     <n v="29"/>
     <s v="lower"/>
@@ -8934,8 +8942,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="43"/>
     <n v="29"/>
     <s v="middle"/>
@@ -8946,8 +8954,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="43"/>
     <n v="29"/>
     <s v="middle"/>
@@ -8958,8 +8966,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="43"/>
     <n v="29"/>
     <s v="middle"/>
@@ -8970,8 +8978,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="43"/>
     <n v="29"/>
     <s v="middle"/>
@@ -8982,8 +8990,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="43"/>
     <n v="29"/>
     <s v="middle"/>
@@ -8994,8 +9002,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="43"/>
     <n v="29"/>
     <s v="upper"/>
@@ -9006,8 +9014,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="43"/>
     <n v="29"/>
     <s v="upper"/>
@@ -9018,8 +9026,8 @@
     <n v="5"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="43"/>
     <n v="29"/>
     <s v="upper"/>
@@ -9030,8 +9038,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="44"/>
     <n v="23"/>
     <s v="lower"/>
@@ -9042,8 +9050,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="44"/>
     <n v="23"/>
     <s v="lower"/>
@@ -9054,8 +9062,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="44"/>
     <n v="23"/>
     <s v="lower"/>
@@ -9066,8 +9074,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="44"/>
     <n v="23"/>
     <s v="lower"/>
@@ -9078,8 +9086,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="44"/>
     <n v="23"/>
     <s v="middle"/>
@@ -9090,8 +9098,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="44"/>
     <n v="23"/>
     <s v="middle"/>
@@ -9102,8 +9110,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="44"/>
     <n v="23"/>
     <s v="upper"/>
@@ -9114,8 +9122,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="44"/>
     <n v="23"/>
     <s v="upper"/>
@@ -9126,8 +9134,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="44"/>
     <n v="23"/>
     <s v="upper"/>
@@ -9138,8 +9146,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="44"/>
     <n v="23"/>
     <s v="upper"/>
@@ -9150,8 +9158,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="35"/>
     <s v="middle"/>
@@ -9162,8 +9170,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="35"/>
     <s v="upper"/>
@@ -9174,8 +9182,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="1"/>
     <n v="29"/>
     <s v="middle"/>
@@ -9186,8 +9194,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="1"/>
     <n v="29"/>
     <s v="middle"/>
@@ -9198,8 +9206,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="2"/>
     <n v="37"/>
     <s v="middle"/>
@@ -9210,8 +9218,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="2"/>
     <n v="37"/>
     <s v="upper"/>
@@ -9222,8 +9230,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="2"/>
     <n v="37"/>
     <s v="upper"/>
@@ -9234,8 +9242,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="2"/>
     <n v="37"/>
     <s v="upper"/>
@@ -9246,8 +9254,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="2"/>
     <n v="37"/>
     <s v="upper"/>
@@ -9258,8 +9266,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="3"/>
     <n v="39"/>
     <s v="middle"/>
@@ -9270,8 +9278,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="3"/>
     <n v="39"/>
     <s v="middle"/>
@@ -9282,8 +9290,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="3"/>
     <n v="39"/>
     <s v="middle"/>
@@ -9294,8 +9302,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="3"/>
     <n v="39"/>
     <s v="middle"/>
@@ -9306,8 +9314,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="3"/>
     <n v="39"/>
     <s v="middle"/>
@@ -9318,8 +9326,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="3"/>
     <n v="39"/>
     <s v="upper"/>
@@ -9330,8 +9338,8 @@
     <n v="6"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="4"/>
     <n v="33"/>
     <s v="upper"/>
@@ -9342,8 +9350,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="4"/>
     <n v="33"/>
     <s v="upper"/>
@@ -9354,8 +9362,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="5"/>
     <n v="31"/>
     <s v="middle"/>
@@ -9366,8 +9374,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="5"/>
     <n v="31"/>
     <s v="middle"/>
@@ -9378,8 +9386,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="5"/>
     <n v="31"/>
     <s v="upper"/>
@@ -9390,8 +9398,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="5"/>
     <n v="31"/>
     <s v="upper"/>
@@ -9402,8 +9410,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="5"/>
     <n v="31"/>
     <s v="upper"/>
@@ -9414,8 +9422,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="5"/>
     <n v="31"/>
     <s v="upper"/>
@@ -9426,8 +9434,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="5"/>
     <n v="31"/>
     <s v="upper"/>
@@ -9438,8 +9446,8 @@
     <n v="5"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="6"/>
     <n v="28"/>
     <s v="middle"/>
@@ -9450,8 +9458,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="6"/>
     <n v="28"/>
     <s v="middle"/>
@@ -9462,8 +9470,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="6"/>
     <n v="28"/>
     <s v="middle"/>
@@ -9474,8 +9482,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="6"/>
     <n v="28"/>
     <s v="middle"/>
@@ -9486,8 +9494,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="6"/>
     <n v="28"/>
     <s v="middle"/>
@@ -9498,8 +9506,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="6"/>
     <n v="28"/>
     <s v="middle"/>
@@ -9510,8 +9518,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="6"/>
     <n v="28"/>
     <s v="upper"/>
@@ -9522,8 +9530,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="6"/>
     <n v="28"/>
     <s v="upper"/>
@@ -9534,8 +9542,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="6"/>
     <n v="28"/>
     <s v="upper"/>
@@ -9546,8 +9554,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="6"/>
     <n v="28"/>
     <s v="upper"/>
@@ -9558,8 +9566,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="6"/>
     <n v="28"/>
     <s v="upper"/>
@@ -9570,8 +9578,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="7"/>
     <n v="23"/>
     <s v="upper"/>
@@ -9582,8 +9590,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="9"/>
     <n v="31"/>
     <s v="upper"/>
@@ -9594,8 +9602,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="9"/>
     <n v="31"/>
     <s v="upper"/>
@@ -9606,8 +9614,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="10"/>
     <n v="26"/>
     <s v="lower"/>
@@ -9618,8 +9626,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="10"/>
     <n v="26"/>
     <s v="middle"/>
@@ -9630,8 +9638,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="10"/>
     <n v="26"/>
     <s v="middle"/>
@@ -9642,8 +9650,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="10"/>
     <n v="26"/>
     <s v="middle"/>
@@ -9654,8 +9662,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="10"/>
     <n v="26"/>
     <s v="upper"/>
@@ -9666,8 +9674,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="10"/>
     <n v="26"/>
     <s v="upper"/>
@@ -9678,8 +9686,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="11"/>
     <n v="45"/>
     <s v="middle"/>
@@ -9690,8 +9698,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="11"/>
     <n v="45"/>
     <s v="middle"/>
@@ -9702,8 +9710,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="11"/>
     <n v="45"/>
     <s v="middle"/>
@@ -9714,8 +9722,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="11"/>
     <n v="45"/>
     <s v="upper"/>
@@ -9726,8 +9734,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="12"/>
     <n v="51"/>
     <s v="lower"/>
@@ -9738,8 +9746,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="12"/>
     <n v="51"/>
     <s v="lower"/>
@@ -9750,8 +9758,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="12"/>
     <n v="51"/>
     <s v="middle"/>
@@ -9762,8 +9770,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="12"/>
     <n v="51"/>
     <s v="middle"/>
@@ -9774,8 +9782,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="12"/>
     <n v="51"/>
     <s v="middle"/>
@@ -9786,8 +9794,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="12"/>
     <n v="51"/>
     <s v="upper"/>
@@ -9798,8 +9806,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="12"/>
     <n v="51"/>
     <s v="upper"/>
@@ -9810,8 +9818,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="12"/>
     <n v="51"/>
     <s v="upper"/>
@@ -9822,8 +9830,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="12"/>
     <n v="51"/>
     <s v="upper"/>
@@ -9834,8 +9842,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="12"/>
     <n v="51"/>
     <s v="upper"/>
@@ -9846,8 +9854,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="13"/>
     <n v="35"/>
     <s v="middle"/>
@@ -9858,8 +9866,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="13"/>
     <n v="35"/>
     <s v="middle"/>
@@ -9870,8 +9878,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="13"/>
     <n v="35"/>
     <s v="upper"/>
@@ -9882,8 +9890,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="14"/>
     <n v="33"/>
     <s v="middle"/>
@@ -9894,8 +9902,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="14"/>
     <n v="33"/>
     <s v="upper"/>
@@ -9906,8 +9914,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="14"/>
     <n v="33"/>
     <s v="upper"/>
@@ -9918,8 +9926,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="14"/>
     <n v="33"/>
     <s v="upper"/>
@@ -9930,8 +9938,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="14"/>
     <n v="33"/>
     <s v="upper"/>
@@ -9942,8 +9950,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="14"/>
     <n v="33"/>
     <s v="upper"/>
@@ -9954,8 +9962,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="15"/>
     <n v="41"/>
     <s v="lower"/>
@@ -9966,8 +9974,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="15"/>
     <n v="41"/>
     <s v="middle"/>
@@ -9978,8 +9986,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="15"/>
     <n v="41"/>
     <s v="middle"/>
@@ -9990,8 +9998,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="15"/>
     <n v="41"/>
     <s v="upper"/>
@@ -10002,8 +10010,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="15"/>
     <n v="41"/>
     <s v="upper"/>
@@ -10014,8 +10022,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="15"/>
     <n v="41"/>
     <s v="upper"/>
@@ -10026,8 +10034,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="15"/>
     <n v="41"/>
     <s v="upper"/>
@@ -10038,8 +10046,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="16"/>
     <n v="49"/>
     <s v="middle"/>
@@ -10050,8 +10058,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="16"/>
     <n v="49"/>
     <s v="middle"/>
@@ -10062,8 +10070,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="16"/>
     <n v="49"/>
     <s v="upper"/>
@@ -10074,8 +10082,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="16"/>
     <n v="49"/>
     <s v="upper"/>
@@ -10086,8 +10094,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="16"/>
     <n v="49"/>
     <s v="upper"/>
@@ -10098,8 +10106,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="16"/>
     <n v="49"/>
     <s v="upper"/>
@@ -10110,8 +10118,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="17"/>
     <n v="37"/>
     <s v="middle"/>
@@ -10122,8 +10130,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="17"/>
     <n v="37"/>
     <s v="upper"/>
@@ -10134,8 +10142,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="17"/>
     <n v="37"/>
     <s v="upper"/>
@@ -10146,8 +10154,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="17"/>
     <n v="37"/>
     <s v="upper"/>
@@ -10158,8 +10166,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="17"/>
     <n v="37"/>
     <s v="upper"/>
@@ -10170,8 +10178,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="17"/>
     <n v="37"/>
     <s v="upper"/>
@@ -10182,8 +10190,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="18"/>
     <n v="22"/>
     <s v="lower"/>
@@ -10194,8 +10202,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="18"/>
     <n v="22"/>
     <s v="middle"/>
@@ -10206,8 +10214,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="18"/>
     <n v="22"/>
     <s v="middle"/>
@@ -10218,8 +10226,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="18"/>
     <n v="22"/>
     <s v="middle"/>
@@ -10230,8 +10238,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="18"/>
     <n v="22"/>
     <s v="middle"/>
@@ -10242,8 +10250,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="18"/>
     <n v="22"/>
     <s v="upper"/>
@@ -10254,8 +10262,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="19"/>
     <n v="26"/>
     <s v="lower"/>
@@ -10266,8 +10274,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="19"/>
     <n v="26"/>
     <s v="middle"/>
@@ -10278,8 +10286,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="19"/>
     <n v="26"/>
     <s v="middle"/>
@@ -10290,8 +10298,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="19"/>
     <n v="26"/>
     <s v="upper"/>
@@ -10302,8 +10310,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="20"/>
     <n v="20"/>
     <s v="lower"/>
@@ -10314,8 +10322,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="20"/>
     <n v="20"/>
     <s v="middle"/>
@@ -10326,8 +10334,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="20"/>
     <n v="20"/>
     <s v="upper"/>
@@ -10338,8 +10346,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="20"/>
     <n v="20"/>
     <s v="upper"/>
@@ -10350,8 +10358,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="20"/>
     <n v="20"/>
     <s v="upper"/>
@@ -10362,8 +10370,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="21"/>
     <n v="31"/>
     <s v="lower"/>
@@ -10374,8 +10382,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="21"/>
     <n v="31"/>
     <s v="lower"/>
@@ -10386,8 +10394,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="21"/>
     <n v="31"/>
     <s v="middle"/>
@@ -10398,8 +10406,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="21"/>
     <n v="31"/>
     <s v="middle"/>
@@ -10410,8 +10418,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="21"/>
     <n v="31"/>
     <s v="middle"/>
@@ -10422,8 +10430,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="21"/>
     <n v="31"/>
     <s v="upper"/>
@@ -10434,8 +10442,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="22"/>
     <n v="28"/>
     <s v="lower"/>
@@ -10446,8 +10454,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="22"/>
     <n v="28"/>
     <s v="middle"/>
@@ -10458,8 +10466,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="22"/>
     <n v="28"/>
     <s v="middle"/>
@@ -10470,8 +10478,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="22"/>
     <n v="28"/>
     <s v="upper"/>
@@ -10482,8 +10490,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="23"/>
     <n v="28"/>
     <s v="lower"/>
@@ -10494,8 +10502,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="23"/>
     <n v="28"/>
     <s v="lower"/>
@@ -10506,8 +10514,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="23"/>
     <n v="28"/>
     <s v="lower"/>
@@ -10518,8 +10526,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="23"/>
     <n v="28"/>
     <s v="middle"/>
@@ -10530,8 +10538,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="23"/>
     <n v="28"/>
     <s v="middle"/>
@@ -10542,8 +10550,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="24"/>
     <n v="29"/>
     <s v="upper"/>
@@ -10554,8 +10562,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="25"/>
     <n v="35"/>
     <s v="lower"/>
@@ -10566,8 +10574,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="25"/>
     <n v="35"/>
     <s v="middle"/>
@@ -10578,8 +10586,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="25"/>
     <n v="35"/>
     <s v="upper"/>
@@ -10590,8 +10598,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="25"/>
     <n v="35"/>
     <s v="upper"/>
@@ -10602,8 +10610,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="25"/>
     <n v="35"/>
     <s v="upper"/>
@@ -10614,8 +10622,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="26"/>
     <n v="37"/>
     <s v="middle"/>
@@ -10626,8 +10634,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="26"/>
     <n v="37"/>
     <s v="upper"/>
@@ -10638,8 +10646,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="27"/>
     <n v="37"/>
     <s v="middle"/>
@@ -10650,8 +10658,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="27"/>
     <n v="37"/>
     <s v="upper"/>
@@ -10662,8 +10670,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="27"/>
     <n v="37"/>
     <s v="upper"/>
@@ -10674,8 +10682,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="28"/>
     <n v="28"/>
     <s v="middle"/>
@@ -10686,8 +10694,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="28"/>
     <n v="28"/>
     <s v="upper"/>
@@ -10698,8 +10706,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="28"/>
     <n v="28"/>
     <s v="upper"/>
@@ -10710,8 +10718,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="28"/>
     <n v="28"/>
     <s v="upper"/>
@@ -10722,8 +10730,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="29"/>
     <n v="29"/>
     <s v="middle"/>
@@ -10734,8 +10742,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="29"/>
     <n v="29"/>
     <s v="middle"/>
@@ -10746,8 +10754,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="29"/>
     <n v="29"/>
     <s v="upper"/>
@@ -10758,8 +10766,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="29"/>
     <n v="29"/>
     <s v="upper"/>
@@ -10770,8 +10778,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="31"/>
     <n v="41"/>
     <s v="upper"/>
@@ -10782,8 +10790,8 @@
     <n v="5"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="31"/>
     <n v="41"/>
     <s v="upper"/>
@@ -10794,8 +10802,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="31"/>
     <n v="41"/>
     <s v="upper"/>
@@ -10806,8 +10814,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="31"/>
     <n v="41"/>
     <s v="upper"/>
@@ -10818,8 +10826,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="31"/>
     <n v="41"/>
     <s v="upper"/>
@@ -10830,8 +10838,8 @@
     <n v="4"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="32"/>
     <n v="35"/>
     <s v="lower"/>
@@ -10842,8 +10850,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="32"/>
     <n v="35"/>
     <s v="middle"/>
@@ -10854,8 +10862,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="32"/>
     <n v="35"/>
     <s v="middle"/>
@@ -10866,8 +10874,8 @@
     <n v="5"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="32"/>
     <n v="35"/>
     <s v="upper"/>
@@ -10878,8 +10886,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="32"/>
     <n v="35"/>
     <s v="upper"/>
@@ -10890,8 +10898,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="32"/>
     <n v="35"/>
     <s v="upper"/>
@@ -10902,8 +10910,8 @@
     <n v="3"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="32"/>
     <n v="35"/>
     <s v="upper"/>
@@ -10914,8 +10922,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="33"/>
     <n v="37"/>
     <s v="upper"/>
@@ -10926,8 +10934,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="34"/>
     <n v="37"/>
     <s v="upper"/>
@@ -10938,8 +10946,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="35"/>
     <n v="29"/>
     <s v="upper"/>
@@ -10950,8 +10958,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="36"/>
     <n v="29"/>
     <s v="upper"/>
@@ -10962,8 +10970,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="36"/>
     <n v="29"/>
     <s v="upper"/>
@@ -10974,8 +10982,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="37"/>
     <n v="29"/>
     <s v="middle"/>
@@ -10986,8 +10994,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="37"/>
     <n v="29"/>
     <s v="upper"/>
@@ -10998,8 +11006,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="37"/>
     <n v="29"/>
     <s v="upper"/>
@@ -11010,8 +11018,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="38"/>
     <n v="21"/>
     <s v="lower"/>
@@ -11022,8 +11030,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="38"/>
     <n v="21"/>
     <s v="upper"/>
@@ -11034,8 +11042,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="38"/>
     <n v="21"/>
     <s v="upper"/>
@@ -11046,8 +11054,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="39"/>
     <n v="30"/>
     <s v="lower"/>
@@ -11058,8 +11066,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="39"/>
     <n v="30"/>
     <s v="middle"/>
@@ -11070,8 +11078,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="39"/>
     <n v="30"/>
     <s v="upper"/>
@@ -11082,8 +11090,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="39"/>
     <n v="30"/>
     <s v="upper"/>
@@ -11094,8 +11102,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="39"/>
     <n v="30"/>
     <s v="upper"/>
@@ -11106,8 +11114,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="40"/>
     <n v="29"/>
     <s v="middle"/>
@@ -11118,8 +11126,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="40"/>
     <n v="29"/>
     <s v="middle"/>
@@ -11130,8 +11138,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="40"/>
     <n v="29"/>
     <s v="middle"/>
@@ -11142,8 +11150,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="40"/>
     <n v="29"/>
     <s v="middle"/>
@@ -11154,8 +11162,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="40"/>
     <n v="29"/>
     <s v="upper"/>
@@ -11166,8 +11174,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="40"/>
     <n v="29"/>
     <s v="upper"/>
@@ -11178,8 +11186,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="41"/>
     <n v="29"/>
     <s v="upper"/>
@@ -11190,8 +11198,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="41"/>
     <n v="29"/>
     <s v="upper"/>
@@ -11202,8 +11210,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="42"/>
     <n v="33"/>
     <s v="lower"/>
@@ -11214,8 +11222,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="43"/>
     <n v="29"/>
     <s v="middle"/>
@@ -11226,8 +11234,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="43"/>
     <n v="29"/>
     <s v="middle"/>
@@ -11238,8 +11246,8 @@
     <n v="2"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="43"/>
     <n v="29"/>
     <s v="upper"/>
@@ -11250,8 +11258,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="44"/>
     <n v="23"/>
     <s v="lower"/>
@@ -11262,8 +11270,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="44"/>
     <n v="23"/>
     <s v="middle"/>
@@ -11274,8 +11282,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="44"/>
     <n v="23"/>
     <s v="middle"/>
@@ -11286,8 +11294,8 @@
     <n v="1"/>
   </r>
   <r>
-    <s v="2"/>
-    <s v="2"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="44"/>
     <n v="23"/>
     <s v="upper"/>
@@ -11298,8 +11306,8 @@
     <n v="1"/>
   </r>
   <r>
-    <m/>
-    <m/>
+    <x v="2"/>
+    <x v="2"/>
     <x v="45"/>
     <m/>
     <m/>
@@ -11313,7 +11321,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6EECAA34-36F7-4316-B26F-32CD1D64C4B5}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6EECAA34-36F7-4316-B26F-32CD1D64C4B5}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B59" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -11966,7 +11974,7 @@
   <dimension ref="A1:J881"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40172,8 +40180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3DE8FC-AF59-413F-8326-75FAB580E195}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:P1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42445,7 +42453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D075C5-CF57-498D-BB49-EFAA32086730}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/Species_counts_createWIS_baseline.xlsx
+++ b/Species_counts_createWIS_baseline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christina.Alba\.ssh\HLC_soil_and_veg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B90086-967D-44B6-931E-E68B80CFD83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2C531F-F8D2-405A-9605-A18E177E043B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029" calcOnSave="0"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -11321,7 +11321,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6EECAA34-36F7-4316-B26F-32CD1D64C4B5}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6EECAA34-36F7-4316-B26F-32CD1D64C4B5}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B59" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -40181,7 +40181,7 @@
   <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42451,10 +42451,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D075C5-CF57-498D-BB49-EFAA32086730}">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42463,7 +42463,7 @@
     <col min="9" max="13" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>142</v>
       </c>
@@ -42503,8 +42503,12 @@
       <c r="M1" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P1">
+        <f>SUM(C2:C6)</f>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>143</v>
       </c>
@@ -42545,7 +42549,7 @@
         <v>0.48214285714285715</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -42586,7 +42590,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>143</v>
       </c>
@@ -42627,7 +42631,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -42668,7 +42672,7 @@
         <v>7.2463768115942032E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>143</v>
       </c>
@@ -42709,7 +42713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>144</v>
       </c>
@@ -42750,7 +42754,7 @@
         <v>0.14035087719298245</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>144</v>
       </c>
@@ -42791,7 +42795,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>144</v>
       </c>
@@ -42832,7 +42836,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>144</v>
       </c>
@@ -42873,7 +42877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>144</v>
       </c>
@@ -42914,7 +42918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>145</v>
       </c>
@@ -42955,7 +42959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>145</v>
       </c>
@@ -42996,7 +43000,7 @@
         <v>2.9411764705882353E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>145</v>
       </c>
@@ -43037,7 +43041,7 @@
         <v>0.1388888888888889</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>145</v>
       </c>
@@ -43078,7 +43082,7 @@
         <v>2.3255813953488372E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>145</v>
       </c>
@@ -44350,6 +44354,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M46">
+    <sortCondition ref="B1:B46"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>